--- a/summary_stat_folder/Supplementary figure 15.xlsx
+++ b/summary_stat_folder/Supplementary figure 15.xlsx
@@ -12,33 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">means</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sds</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">strain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd</t>
   </si>
   <si>
     <t xml:space="preserve">Growth_conditions</t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">replicates</t>
   </si>
   <si>
     <t xml:space="preserve">E. faecalis</t>
   </si>
   <si>
+    <t xml:space="preserve">Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Aerobically grown'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPR001</t>
+  </si>
+  <si>
     <t xml:space="preserve">α15.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Aerobically grown</t>
+    <t xml:space="preserve">α20.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α48.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α51.5</t>
   </si>
   <si>
     <t xml:space="preserve">A. baylyi</t>
@@ -59,25 +77,10 @@
     <t xml:space="preserve">b2480</t>
   </si>
   <si>
-    <t xml:space="preserve">α20.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α48.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α51.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNIPR001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control</t>
+    <t xml:space="preserve">'Anearobically grown'</t>
   </si>
   <si>
     <t xml:space="preserve">B. thetaiotaomicron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anaerobically grown</t>
   </si>
   <si>
     <t xml:space="preserve">B. vulgatus</t>
@@ -434,333 +437,384 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1.3910678575</v>
+        <v>1.4483712025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248632835563724</v>
+        <v>0.0614674495496141</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.09171182</v>
+        <v>1.6078409425</v>
       </c>
       <c r="D3" t="n">
-        <v>0.275905034452091</v>
+        <v>0.221011346734674</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9203103075</v>
+        <v>1.3910678575</v>
       </c>
       <c r="D4" t="n">
-        <v>0.205533678200737</v>
+        <v>0.248632835563724</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9424863125</v>
+        <v>1.52009649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.261590195775506</v>
+        <v>0.262973112749747</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>1.2372118675</v>
+        <v>1.6060672375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33843535556233</v>
+        <v>0.0454445144180625</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.2770848675</v>
+        <v>1.765264245</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0554712762705843</v>
+        <v>0.441517836572628</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.263653275</v>
+        <v>1.26554575</v>
       </c>
       <c r="D8" t="n">
-        <v>1.22951697617498</v>
+        <v>0.126359391883769</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>1.52009649</v>
+        <v>1.18813821</v>
       </c>
       <c r="D9" t="n">
-        <v>0.262973112749747</v>
+        <v>0.146514814508696</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>1.2216748925</v>
+        <v>1.09171182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.120195909527482</v>
+        <v>0.275905034452091</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6390756275</v>
+        <v>1.2216748925</v>
       </c>
       <c r="D11" t="n">
-        <v>0.116384330038097</v>
+        <v>0.120195909527482</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6247196175</v>
+        <v>1.175659845</v>
       </c>
       <c r="D12" t="n">
-        <v>0.132828741853575</v>
+        <v>0.156110621497279</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>1.1861818725</v>
+        <v>0.9539849525</v>
       </c>
       <c r="D13" t="n">
-        <v>0.26227099063105</v>
+        <v>0.231587146276903</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>2.272034025</v>
+        <v>0.725772495</v>
       </c>
       <c r="D14" t="n">
-        <v>0.105441503953207</v>
+        <v>0.333276307933966</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.2592211</v>
+        <v>0.395174235</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0675739992663842</v>
+        <v>0.124738086332704</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>1.6060672375</v>
+        <v>0.9203103075</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0454445144180625</v>
+        <v>0.205533678200737</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>1.175659845</v>
+        <v>0.6390756275</v>
       </c>
       <c r="D17" t="n">
-        <v>0.156110621497279</v>
+        <v>0.116384330038097</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
         <v>0.701544995</v>
@@ -769,509 +823,587 @@
         <v>0.252108608349383</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>0.991335415</v>
+        <v>0.8177666925</v>
       </c>
       <c r="D19" t="n">
-        <v>0.269452034267718</v>
+        <v>0.296056204038089</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0699601725</v>
+        <v>0.9906589425</v>
       </c>
       <c r="D20" t="n">
-        <v>0.371385432181593</v>
+        <v>0.306159906910295</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>2.32749621</v>
+        <v>0.86580953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168392206654549</v>
+        <v>0.172528972534695</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.20289375</v>
+        <v>0.9424863125</v>
       </c>
       <c r="D22" t="n">
-        <v>1.28760585678082</v>
+        <v>0.261590195775506</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>1.765264245</v>
+        <v>0.6247196175</v>
       </c>
       <c r="D23" t="n">
-        <v>0.441517836572628</v>
+        <v>0.132828741853575</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9539849525</v>
+        <v>0.991335415</v>
       </c>
       <c r="D24" t="n">
-        <v>0.231587146276903</v>
+        <v>0.269452034267718</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8177666925</v>
+        <v>0.84831122</v>
       </c>
       <c r="D25" t="n">
-        <v>0.296056204038089</v>
+        <v>0.123171834313398</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>0.84831122</v>
+        <v>1.367931555</v>
       </c>
       <c r="D26" t="n">
-        <v>0.123171834313398</v>
+        <v>0.255401684044428</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>1.23721187</v>
+        <v>1.2882418675</v>
       </c>
       <c r="D27" t="n">
-        <v>0.211312434245128</v>
+        <v>0.351318510884696</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>2.3032687075</v>
+        <v>1.2372118675</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114589737284532</v>
+        <v>0.33843535556233</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.14437295</v>
+        <v>1.1861818725</v>
       </c>
       <c r="D29" t="n">
-        <v>1.36045192267697</v>
+        <v>0.26227099063105</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>1.6078409425</v>
+        <v>1.0699601725</v>
       </c>
       <c r="D30" t="n">
-        <v>0.221011346734674</v>
+        <v>0.371385432181593</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C31" t="n">
-        <v>1.18813821</v>
+        <v>1.23721187</v>
       </c>
       <c r="D31" t="n">
-        <v>0.146514814508696</v>
+        <v>0.211312434245128</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>0.395174235</v>
+        <v>2.4078045525</v>
       </c>
       <c r="D32" t="n">
-        <v>0.124738086332704</v>
+        <v>0.0538159365953781</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
-        <v>0.86580953</v>
+        <v>2.25134876</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172528972534695</v>
+        <v>0.0733898517048541</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>1.2882418675</v>
+        <v>2.2770848675</v>
       </c>
       <c r="D34" t="n">
-        <v>0.351318510884696</v>
+        <v>0.0554712762705843</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>2.25134876</v>
+        <v>2.272034025</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0733898517048541</v>
+        <v>0.105441503953207</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>-4.2592211</v>
+        <v>2.32749621</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0675739992663842</v>
+        <v>0.168392206654549</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C37" t="n">
-        <v>1.4483712025</v>
+        <v>2.3032687075</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0614674495496141</v>
+        <v>0.114589737284532</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>1.26554575</v>
+        <v>1.043050395</v>
       </c>
       <c r="D38" t="n">
-        <v>0.126359391883769</v>
+        <v>0.20592265956142</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>0.725772495</v>
+        <v>2.14967025</v>
       </c>
       <c r="D39" t="n">
-        <v>0.333276307933966</v>
+        <v>0.285725084317513</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9906589425</v>
+        <v>-4.2592211</v>
       </c>
       <c r="D40" t="n">
-        <v>0.306159906910295</v>
+        <v>0.0675739992663842</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>1.367931555</v>
+        <v>-3.701545</v>
       </c>
       <c r="D41" t="n">
-        <v>0.255401684044428</v>
+        <v>0.11487538306066</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>2.4078045525</v>
+        <v>-3.263653275</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0538159365953781</v>
+        <v>1.22951697617498</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C43" t="n">
-        <v>1.043050395</v>
+        <v>-3.6262875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20592265956142</v>
+        <v>0.126038905997315</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1280,78 +1412,90 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
-        <v>1.109126</v>
+        <v>-4.2592211</v>
       </c>
       <c r="D44" t="n">
-        <v>0.553454262392717</v>
+        <v>0.0675739992663842</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
-        <v>0.79482425</v>
+        <v>-3.701545</v>
       </c>
       <c r="D45" t="n">
-        <v>0.165149433254401</v>
+        <v>0.11487538306066</v>
       </c>
       <c r="E45" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6976755</v>
+        <v>-3.20289375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0843215278542002</v>
+        <v>1.28760585678082</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>-3.6262875</v>
+        <v>-3.55103</v>
       </c>
       <c r="D47" t="n">
-        <v>0.126038905997315</v>
+        <v>0.379138550664529</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1360,98 +1504,113 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
-        <v>1.04932</v>
+        <v>-3.14437295</v>
       </c>
       <c r="D48" t="n">
-        <v>0.350333584279326</v>
+        <v>1.36045192267697</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.834257</v>
+        <v>-3.6262875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.020696</v>
+        <v>0.126038905997315</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9362945</v>
+        <v>0.8776725</v>
       </c>
       <c r="D50" t="n">
-        <v>0.257595792254066</v>
+        <v>0.472669159832047</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>-3.701545</v>
+        <v>0.9836395</v>
       </c>
       <c r="D51" t="n">
-        <v>0.11487538306066</v>
+        <v>0.410262565064943</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>0.88264125</v>
+        <v>1.109126</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266909411333227</v>
+        <v>0.553454262392717</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1460,98 +1619,113 @@
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8252575</v>
+        <v>1.04932</v>
       </c>
       <c r="D53" t="n">
-        <v>0.305889239921359</v>
+        <v>0.350333584279326</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54" t="n">
-        <v>0.70665375</v>
+        <v>0.88264125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.180635674474664</v>
+        <v>0.266909411333227</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
       </c>
       <c r="F54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
         <v>14</v>
       </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
       <c r="C55" t="n">
-        <v>-3.55103</v>
+        <v>0.913876</v>
       </c>
       <c r="D55" t="n">
-        <v>0.379138550664529</v>
+        <v>0.403382175884524</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>0.913876</v>
+        <v>0.709926</v>
       </c>
       <c r="D56" t="n">
-        <v>0.403382175884524</v>
+        <v>0.144505124877978</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
-        <v>0.85887875</v>
+        <v>0.8490015</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214964146812711</v>
+        <v>0.0374168868159819</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
       </c>
       <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1560,198 +1734,228 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C58" t="n">
-        <v>0.786962</v>
+        <v>0.79482425</v>
       </c>
       <c r="D58" t="n">
-        <v>0.313873552053477</v>
+        <v>0.165149433254401</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.6262875</v>
+        <v>0.834257</v>
       </c>
       <c r="D59" t="n">
-        <v>0.126038905997315</v>
+        <v>0.020696</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9836395</v>
+        <v>0.8252575</v>
       </c>
       <c r="D60" t="n">
-        <v>0.410262565064943</v>
+        <v>0.305889239921359</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8490015</v>
+        <v>0.85887875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0374168868159819</v>
+        <v>0.214964146812711</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
       </c>
       <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>0.743794</v>
+        <v>0.6307195</v>
       </c>
       <c r="D62" t="n">
-        <v>0.301771091150229</v>
+        <v>0.152093444963943</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.701545</v>
+        <v>0.743794</v>
       </c>
       <c r="D63" t="n">
-        <v>0.11487538306066</v>
+        <v>0.301771091150229</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8776725</v>
+        <v>0.6976755</v>
       </c>
       <c r="D64" t="n">
-        <v>0.472669159832047</v>
+        <v>0.0843215278542002</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>0.709926</v>
+        <v>0.9362945</v>
       </c>
       <c r="D65" t="n">
-        <v>0.144505124877978</v>
+        <v>0.257595792254066</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
       </c>
       <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6307195</v>
+        <v>0.70665375</v>
       </c>
       <c r="D66" t="n">
-        <v>0.152093444963943</v>
+        <v>0.180635674474664</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
         <v>14</v>
       </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
       <c r="C67" t="n">
-        <v>2.14967025</v>
+        <v>0.786962</v>
       </c>
       <c r="D67" t="n">
-        <v>0.285725084317513</v>
+        <v>0.313873552053477</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
       </c>
       <c r="F67" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" t="n">
         <v>4</v>
       </c>
     </row>
